--- a/data/trans_camb/P13_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.737881803001586</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-1.563749613388833</v>
+        <v>-1.563749613388832</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>15.14680019830523</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.052315858104466</v>
+        <v>-0.6769417441439718</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2201426889236492</v>
+        <v>-0.5013584681593515</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.312668011460967</v>
+        <v>-4.250320444167422</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10.18476984281493</v>
+        <v>9.718279222808425</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.3782471926873</v>
+        <v>2.4732142492522</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.73008976495387</v>
+        <v>-5.529193554171432</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.675884966576596</v>
+        <v>5.473396946368471</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.919647026672276</v>
+        <v>1.713192574804074</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.944524791044448</v>
+        <v>-4.007333921891649</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.526191407414198</v>
+        <v>5.464720224168835</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.846162496380178</v>
+        <v>6.027359901153224</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4994020988615033</v>
+        <v>0.484940572530637</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.57075813927898</v>
+        <v>20.81566792119061</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.13631104213198</v>
+        <v>10.86485748627799</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.2839785637045337</v>
+        <v>-0.06503657044749338</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.77034374688958</v>
+        <v>11.9674655707819</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.627997178810267</v>
+        <v>7.345789437968846</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.5766392813979331</v>
+        <v>-0.5049668066638631</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.9590957600999577</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.5477904935176302</v>
+        <v>-0.54779049351763</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>4.549490269112414</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2997758863055108</v>
+        <v>-0.2529297812148831</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1341491652253062</v>
+        <v>-0.221399721053173</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8995342403467179</v>
+        <v>-0.8899387144133485</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.653790072747165</v>
+        <v>1.748315885966299</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3707191483187514</v>
+        <v>0.3446663957545137</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9128021943844757</v>
+        <v>-0.9095123755831748</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.253800206116229</v>
+        <v>1.218092744598553</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4280934548215871</v>
+        <v>0.3755146113097841</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.855051912609851</v>
+        <v>-0.8497448511467458</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.775235978608029</v>
+        <v>3.129064525474508</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.606602285882735</v>
+        <v>3.75705276034807</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5843038831492011</v>
+        <v>0.6269376043984893</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>10.38544515631216</v>
+        <v>11.50760623301591</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.836811234229453</v>
+        <v>5.98710722207286</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1079641342109767</v>
+        <v>0.2376923987571137</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.505343508111939</v>
+        <v>6.04903331821996</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.459058053734548</v>
+        <v>3.640012754767797</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1917106104306029</v>
+        <v>-0.1713795314232523</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.013070716929854</v>
+        <v>-2.904288338567539</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.966581542432412</v>
+        <v>-4.610001173988539</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.334357765291682</v>
+        <v>-3.157062099390672</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8520443052544765</v>
+        <v>0.6844301360696825</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.545157961567551</v>
+        <v>-5.633375239492164</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.158568323741428</v>
+        <v>-1.950703686226965</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03179500681622249</v>
+        <v>-0.2967162520438181</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.602806798605982</v>
+        <v>-4.375329015915476</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.024633787742976</v>
+        <v>-1.886977800655777</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.842830646645043</v>
+        <v>2.739290614456728</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.05996202354454627</v>
+        <v>0.1089138679065254</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.572150791696396</v>
+        <v>2.324359830822371</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.89176545734979</v>
+        <v>8.01632296989801</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0003824103456653254</v>
+        <v>-0.1979204388954597</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.812331004444584</v>
+        <v>3.860889132424155</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.771593828530093</v>
+        <v>4.383217516836228</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.7700130150455814</v>
+        <v>-0.6720648170837255</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.077980043844936</v>
+        <v>2.296263226119401</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.469179097628963</v>
+        <v>-0.4871178147992073</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7791027089932395</v>
+        <v>-0.7624520265738944</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5514205072649162</v>
+        <v>-0.5372886461757573</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.09324916955089137</v>
+        <v>0.06038212786973576</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.701833166108884</v>
+        <v>-0.6968115849880737</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2675127821201064</v>
+        <v>-0.2488125980031079</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.003239256035394765</v>
+        <v>-0.04578847278389406</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6620523765093687</v>
+        <v>-0.6536159629920243</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2988297568290363</v>
+        <v>-0.2764379837721402</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9555657597681548</v>
+        <v>0.9045442180488895</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.03961664123152306</v>
+        <v>0.088090915211292</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8542383573105532</v>
+        <v>0.760272638079017</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.600807950597464</v>
+        <v>1.560650582045585</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.003762101664056545</v>
+        <v>0.02453520228065661</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7744614835422386</v>
+        <v>0.8055318023594907</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.094483500653392</v>
+        <v>0.9017605131497715</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1326448085976892</v>
+        <v>-0.1227068107152551</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4419889449323219</v>
+        <v>0.5183041248830137</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.675824490607377</v>
+        <v>-0.6375304333214673</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.956821550617148</v>
+        <v>-1.539158826291988</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.495797660419602</v>
+        <v>3.498823584091015</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.118238767268769</v>
+        <v>1.288974717431546</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.53320910987142</v>
+        <v>-3.598849904055591</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.769961723603326</v>
+        <v>5.583512434286822</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9936474283216234</v>
+        <v>1.205698961516606</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.152303394167523</v>
+        <v>-2.043243367286196</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.61111173409909</v>
+        <v>5.451855942012171</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.894993729434578</v>
+        <v>4.270717314170406</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.083696983296896</v>
+        <v>2.024519725526634</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.193806449384944</v>
+        <v>9.214966076922339</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.552582685240562</v>
+        <v>7.59827272899871</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2442536578705959</v>
+        <v>0.05250335953198025</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.62025961754873</v>
+        <v>11.58095218781448</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.797260885677701</v>
+        <v>5.14362088274317</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5302340837638922</v>
+        <v>0.5038991755349974</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.479406583104502</v>
+        <v>9.545918653522435</v>
       </c>
     </row>
     <row r="19">
@@ -1208,29 +1208,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.77509745423095</v>
+        <v>-0.5563499612440803</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>0.8283602902210204</v>
+        <v>0.9524331347935615</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1534975004426353</v>
+        <v>0.2366050805684275</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.449362592627221</v>
+        <v>1.288698420363023</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4048171938722562</v>
+        <v>0.3772672805782257</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8202209073452288</v>
+        <v>-0.8110054792818741</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.894399044549099</v>
+        <v>1.875083088884744</v>
       </c>
     </row>
     <row r="21">
@@ -1241,29 +1241,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>11.08271961526723</v>
+        <v>11.14727545901173</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>24.43340044224974</v>
+        <v>25.98409696440211</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>6.85663911011957</v>
+        <v>6.632362105628219</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.07334532352658</v>
+        <v>0.9051706766338679</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>11.07019438826988</v>
+        <v>9.387526363142346</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.870730518812723</v>
+        <v>5.020654223827629</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.789060336147933</v>
+        <v>0.6222912557787964</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>10.13073591152787</v>
+        <v>9.840678475536274</v>
       </c>
     </row>
     <row r="22">
@@ -1293,7 +1293,7 @@
         <v>4.699523476217844</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.339780745578257</v>
+        <v>4.339780745578255</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.010840260248009</v>
@@ -1302,7 +1302,7 @@
         <v>3.98338688557906</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.354114199884428</v>
+        <v>4.354114199884427</v>
       </c>
     </row>
     <row r="23">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8555241978915101</v>
+        <v>-0.9655807109895214</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8167162016876475</v>
+        <v>1.05726777619681</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.605108743965797</v>
+        <v>1.590068443817972</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.739673015562183</v>
+        <v>3.613149958834184</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.989757544378876</v>
+        <v>1.773673975561447</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.840851404006195</v>
+        <v>1.586272485622523</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.99469045432185</v>
+        <v>2.04998688965314</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.111691591929859</v>
+        <v>2.183571995868439</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.610709759488551</v>
+        <v>2.469185719031981</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.56023878473511</v>
+        <v>3.073099732891923</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.107523584716513</v>
+        <v>5.959323141867631</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.630968568787787</v>
+        <v>7.918387277203736</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.15203078209931</v>
+        <v>10.22430888304793</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.807217717097886</v>
+        <v>8.104620480808871</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.508500123713946</v>
+        <v>6.739712288376495</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.08870332848299</v>
+        <v>6.074523506555895</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.233800932200566</v>
+        <v>6.101393443224755</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.395425637249572</v>
+        <v>6.286335124998617</v>
       </c>
     </row>
     <row r="25">
@@ -1398,7 +1398,7 @@
         <v>1.907951456668099</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.76190012392703</v>
+        <v>1.761900123927029</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>2.133295897097088</v>
@@ -1418,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5200752115024826</v>
+        <v>-0.5553685436840847</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.01140017357988203</v>
+        <v>0.1363012668019629</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2562361668354946</v>
+        <v>0.2257231498867405</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.8410699909625805</v>
+        <v>0.8937244013524978</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4109034350050697</v>
+        <v>0.3642200433461515</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4315151997527744</v>
+        <v>0.3441844786009072</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6944971367236039</v>
+        <v>0.6606708785428564</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6831979434894682</v>
+        <v>0.687105739527627</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.8516074348855736</v>
+        <v>0.8494539545363612</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7.390273504084059</v>
+        <v>7.343266728676022</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>16.18683403400466</v>
+        <v>11.2127486419897</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>19.6302622893641</v>
+        <v>15.8073599587709</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6.682045298146241</v>
+        <v>6.824644573394855</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5.190601686563329</v>
+        <v>5.76457921393486</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5.452207089841538</v>
+        <v>5.370423780134525</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>5.203551674575077</v>
+        <v>4.667465240774028</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>5.756878120058265</v>
+        <v>4.690053225871715</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5.652868760919763</v>
+        <v>5.521897601517462</v>
       </c>
     </row>
     <row r="28">
@@ -1498,7 +1498,7 @@
         <v>1.105099042971413</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.269837331007871</v>
+        <v>1.26983733100787</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.7983491137518</v>
@@ -1507,7 +1507,7 @@
         <v>0.6174710112153439</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.826802545147922</v>
+        <v>-1.826802545147924</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.596160954150755</v>
@@ -1516,7 +1516,7 @@
         <v>0.8664005150879555</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.2793034034342584</v>
+        <v>-0.2793034034342591</v>
       </c>
     </row>
     <row r="29">
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.768780037075978</v>
+        <v>-2.779866005675724</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.929269399407352</v>
+        <v>-2.076348224304462</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.826296280236143</v>
+        <v>-1.726381455084956</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.197578015692091</v>
+        <v>-0.3694863259723538</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.392287219897029</v>
+        <v>-4.018519025281797</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.097468747280058</v>
+        <v>-6.477129241729479</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.5139737903121909</v>
+        <v>-0.5664602302156279</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.349603686938647</v>
+        <v>-1.983102280653212</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.12386164101672</v>
+        <v>-2.923332440689213</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.597505293907613</v>
+        <v>3.873957290787777</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.79164253922655</v>
+        <v>4.544497920313688</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.97638833242496</v>
+        <v>4.058798755320103</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.54290836550997</v>
+        <v>10.44143571467238</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.351005893034717</v>
+        <v>5.717541573106165</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.575243233134014</v>
+        <v>1.745129814609265</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.518119899563905</v>
+        <v>6.187529448768996</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.574764118725953</v>
+        <v>3.832602644799819</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.906163145481011</v>
+        <v>1.911219805430292</v>
       </c>
     </row>
     <row r="31">
@@ -1603,7 +1603,7 @@
         <v>0.4153848190537121</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.4773066752008743</v>
+        <v>0.4773066752008738</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.729949710048452</v>
@@ -1612,7 +1612,7 @@
         <v>0.0939328871065714</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2779026612142159</v>
+        <v>-0.2779026612142162</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.5597907381140991</v>
@@ -1621,7 +1621,7 @@
         <v>0.186815452666021</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.06022410055750512</v>
+        <v>-0.06022410055750527</v>
       </c>
     </row>
     <row r="32">
@@ -1632,31 +1632,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7347948272596961</v>
+        <v>-0.7166422840190223</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5497032904687497</v>
+        <v>-0.5459117138381433</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4489551652023921</v>
+        <v>-0.4736809535400063</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1563451523497</v>
+        <v>-0.05258078167054907</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4902111301838279</v>
+        <v>-0.4644678166771618</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6133663132035905</v>
+        <v>-0.6306434210914336</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1000111126865766</v>
+        <v>-0.1235842193676767</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4001627342526672</v>
+        <v>-0.3453730202510764</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4884214873831247</v>
+        <v>-0.4504836283416449</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1667,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.97729667773769</v>
+        <v>3.391396144503048</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>4.420516908144021</v>
+        <v>4.080064321572437</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.76034271324747</v>
+        <v>3.666842345504103</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.684487124456951</v>
+        <v>2.744418942345069</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.325074025822154</v>
+        <v>1.443980447235157</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4308612242092079</v>
+        <v>0.5905408135003222</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.820223272704332</v>
+        <v>1.877073888763258</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.043986112021142</v>
+        <v>1.250647589297361</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5931823691870231</v>
+        <v>0.6679798184454809</v>
       </c>
     </row>
     <row r="34">
@@ -1712,7 +1712,7 @@
         <v>4.077302117168998</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5.312179732874429</v>
+        <v>5.31217973287443</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>4.343482687851513</v>
@@ -1721,7 +1721,7 @@
         <v>6.00334610548717</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>6.845687806724393</v>
+        <v>6.845687806724389</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.436624023842066</v>
@@ -1741,31 +1741,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.290246488995004</v>
+        <v>2.60565608511352</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>2.166148164971446</v>
+        <v>2.12965202832274</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3.524505453059266</v>
+        <v>3.458384033384111</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.052143205225648</v>
+        <v>1.114578940424244</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>2.341127398544907</v>
+        <v>2.436536939154506</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>3.85357455322726</v>
+        <v>4.014850381200975</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.444366823385721</v>
+        <v>2.436878627286864</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>3.097008914694112</v>
+        <v>2.958399774775115</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>4.447668141695555</v>
+        <v>4.436405301061898</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1776,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.344644332294889</v>
+        <v>7.429802176059322</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.029960566542435</v>
+        <v>6.95072115039157</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.513080608230119</v>
+        <v>7.559872875423099</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.73853375716855</v>
+        <v>7.516390578076957</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>10.26067901523938</v>
+        <v>10.07354163483276</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>9.762258385508792</v>
+        <v>9.554619094892901</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.917934614425553</v>
+        <v>6.802427931070548</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.537568982947566</v>
+        <v>7.447107712868346</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>7.828770377107857</v>
+        <v>7.804238674830192</v>
       </c>
     </row>
     <row r="37">
@@ -1832,7 +1832,7 @@
         <v>3.137317126066387</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>3.577520472476145</v>
+        <v>3.577520472476142</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>4.575986315050128</v>
@@ -1855,22 +1855,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>0.2786006209003759</v>
+        <v>0.1266077064020819</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.4575183502130263</v>
+        <v>0.6262960127075273</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1.006781766979979</v>
+        <v>0.9118798224538791</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1.067668297954966</v>
+        <v>1.127583424837577</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1.343057447169951</v>
+        <v>1.425334911651361</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2.029729174935878</v>
+        <v>1.936357151866925</v>
       </c>
     </row>
     <row r="39">
@@ -1884,22 +1884,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>8.496721482340934</v>
+        <v>9.280162876981818</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>11.29911002592519</v>
+        <v>13.4776860209558</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>12.20449006490123</v>
+        <v>12.2278000242805</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>14.18892994969742</v>
+        <v>14.1447553019854</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>18.37857992934962</v>
+        <v>17.4946822311935</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>19.2964644413861</v>
+        <v>18.12168134944431</v>
       </c>
     </row>
     <row r="40">
@@ -1920,7 +1920,7 @@
         <v>-0.2982949245215166</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2.710379891180517</v>
+        <v>2.710379891180518</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-1.127182974698482</v>
@@ -1938,7 +1938,7 @@
         <v>0.3322684642193513</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.831899905541836</v>
+        <v>2.831899905541839</v>
       </c>
     </row>
     <row r="41">
@@ -1949,31 +1949,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.485572813775561</v>
+        <v>-4.484211299196238</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.615713698552822</v>
+        <v>-2.879245660685652</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.02398040009584262</v>
+        <v>-0.02225096530005657</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.831371088814164</v>
+        <v>-3.859573024408341</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.744176297166639</v>
+        <v>-2.013478659186041</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.226417231533275</v>
+        <v>0.2025900960171774</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-3.264477408675615</v>
+        <v>-3.532415907437941</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.444917441851935</v>
+        <v>-1.677051185480008</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.159851434837459</v>
+        <v>0.9371435836701408</v>
       </c>
     </row>
     <row r="42">
@@ -1984,31 +1984,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.339143924775043</v>
+        <v>-0.2619250654365412</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.04279800570155</v>
+        <v>1.960701404897611</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.388660048557989</v>
+        <v>5.225739581574261</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.46833034539874</v>
+        <v>1.439796804164184</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.75047953494672</v>
+        <v>3.491626896561274</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.2541157653426</v>
+        <v>5.586944591520081</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-0.01546035778197438</v>
+        <v>0.08446577475539267</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.291337399613478</v>
+        <v>2.260904303832134</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.851175396803202</v>
+        <v>4.77690705576009</v>
       </c>
     </row>
     <row r="43">
@@ -2025,7 +2025,7 @@
         <v>-0.06725490217038649</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.6110943212269766</v>
+        <v>0.6110943212269769</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.1741853899576307</v>
@@ -2043,7 +2043,7 @@
         <v>0.06072084164471055</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.5175193081355987</v>
+        <v>0.5175193081355992</v>
       </c>
     </row>
     <row r="44">
@@ -2054,31 +2054,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.7805513461054888</v>
+        <v>-0.759313720900733</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4728973917709239</v>
+        <v>-0.4937898000164626</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.02221166331907873</v>
+        <v>-0.01448279657140328</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4830714123102345</v>
+        <v>-0.4937027798811128</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2365402759103047</v>
+        <v>-0.2518480746653784</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02845043292931803</v>
+        <v>0.01781732889282817</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.5308862389676705</v>
+        <v>-0.5367100639201684</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2305677818474955</v>
+        <v>-0.2562613346496046</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1866831735698047</v>
+        <v>0.1428059158052552</v>
       </c>
     </row>
     <row r="45">
@@ -2089,31 +2089,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.04355005193814928</v>
+        <v>-0.03686103524775595</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6293895454285686</v>
+        <v>0.5910034640279208</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.651746530598181</v>
+        <v>1.616096571846125</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2998488459205201</v>
+        <v>0.3048497705779635</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.725943132680509</v>
+        <v>0.6666046939027515</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.049188478088043</v>
+        <v>1.135538131046461</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.004340630194693872</v>
+        <v>0.04464863046091133</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4830804159547316</v>
+        <v>0.5100955751055204</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.100855527299277</v>
+        <v>1.065051911606673</v>
       </c>
     </row>
     <row r="46">
@@ -2143,7 +2143,7 @@
         <v>-2.204424459101389</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1.505992955732165</v>
+        <v>1.505992955732167</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>4.447768780183686</v>
@@ -2152,7 +2152,7 @@
         <v>-1.893761838125904</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>1.071694559328449</v>
+        <v>1.07169455932845</v>
       </c>
     </row>
     <row r="47">
@@ -2163,31 +2163,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.919684038946086</v>
+        <v>1.768362490498063</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.313860653863353</v>
+        <v>-3.445580458426734</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.538489333043092</v>
+        <v>-1.415394753057356</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.440385259796302</v>
+        <v>1.566855508555495</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.727085303401512</v>
+        <v>-4.523894462828064</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.7172302499752788</v>
+        <v>-0.9657648939187354</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.695931119867915</v>
+        <v>2.541069648275904</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.27439828213948</v>
+        <v>-3.363850987646165</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.4469176466894632</v>
+        <v>-0.4520885802685731</v>
       </c>
     </row>
     <row r="48">
@@ -2198,31 +2198,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>7.420702822133062</v>
+        <v>7.072852483017023</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.4838251795441673</v>
+        <v>0.3830018890473829</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.798024345874204</v>
+        <v>2.700379694177818</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7.090102616152423</v>
+        <v>7.172035947627729</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.01091561844862854</v>
+        <v>-0.1243043775619568</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.920365371260417</v>
+        <v>3.579760798902178</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>6.38020244114545</v>
+        <v>6.44511752367412</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.2099785696002894</v>
+        <v>-0.4900998741371616</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.603212762695305</v>
+        <v>2.666419126226264</v>
       </c>
     </row>
     <row r="49">
@@ -2248,7 +2248,7 @@
         <v>-0.3783864010239656</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2585016021457278</v>
+        <v>0.258501602145728</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.8650963606274535</v>
@@ -2257,7 +2257,7 @@
         <v>-0.3683389481388953</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.2084458767528368</v>
+        <v>0.208445876752837</v>
       </c>
     </row>
     <row r="50">
@@ -2268,31 +2268,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.3568141017684243</v>
+        <v>0.3069137259698549</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6204944087591888</v>
+        <v>-0.6437538815454553</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2810127857911131</v>
+        <v>-0.2622553581251201</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1831218842732499</v>
+        <v>0.2061357890372575</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6370727017759701</v>
+        <v>-0.6320201649870663</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1026402835776946</v>
+        <v>-0.1360768011582277</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4351692855262529</v>
+        <v>0.4149893901392689</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5562482238431365</v>
+        <v>-0.5489378598640087</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.08298705569554755</v>
+        <v>-0.07822896415479781</v>
       </c>
     </row>
     <row r="51">
@@ -2303,31 +2303,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>2.15682118609132</v>
+        <v>2.071175936640775</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1476444041792107</v>
+        <v>0.15337131453518</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.8344606847836098</v>
+        <v>0.822906502359855</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.530711360606083</v>
+        <v>1.538904375983279</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.02458413454572854</v>
+        <v>-0.01180008839465875</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.9011446921899017</v>
+        <v>0.7856251153849255</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>1.503585365303047</v>
+        <v>1.455018360149691</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.04987076020829576</v>
+        <v>-0.0919000612840546</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.6005147818609081</v>
+        <v>0.6107746137454353</v>
       </c>
     </row>
     <row r="52">
@@ -2348,7 +2348,7 @@
         <v>0.2783966246153333</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>2.039987086733661</v>
+        <v>2.039987086733662</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>4.475870962860765</v>
@@ -2357,7 +2357,7 @@
         <v>0.6784176552882361</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>2.606354272822482</v>
+        <v>2.606354272822481</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>2.996987310924585</v>
@@ -2366,7 +2366,7 @@
         <v>0.4873252230141533</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>2.341252046322673</v>
+        <v>2.341252046322674</v>
       </c>
     </row>
     <row r="53">
@@ -2377,31 +2377,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.4947877156097306</v>
+        <v>0.5597660223757389</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.5406993135092802</v>
+        <v>-0.7279475755640156</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.080938409885803</v>
+        <v>0.9264742572297239</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>3.275611652559916</v>
+        <v>3.281744727548465</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.5047254966529119</v>
+        <v>-0.4029794192278743</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>1.701476810939303</v>
+        <v>1.56432369897891</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>2.225529537392855</v>
+        <v>2.223794158262537</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.2037124589313178</v>
+        <v>-0.1984770863696363</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>1.619376226564993</v>
+        <v>1.630974905862443</v>
       </c>
     </row>
     <row r="54">
@@ -2412,31 +2412,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.417574072448925</v>
+        <v>2.459196601027841</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.248009085175977</v>
+        <v>1.107240245422503</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>3.094778709023027</v>
+        <v>3.005139395568906</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>5.779674468137834</v>
+        <v>5.755254743111711</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.76217451165841</v>
+        <v>1.745123412468996</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>3.705280158099064</v>
+        <v>3.552944889448057</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>3.832600083460125</v>
+        <v>3.81071625067444</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.250081069296675</v>
+        <v>1.257312925311564</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>3.116528181062549</v>
+        <v>3.004216323125315</v>
       </c>
     </row>
     <row r="55">
@@ -2453,7 +2453,7 @@
         <v>0.08736432005844225</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.6401732959468964</v>
+        <v>0.6401732959468969</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.9228510393492302</v>
@@ -2462,7 +2462,7 @@
         <v>0.1398785719004412</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.5373874201344705</v>
+        <v>0.5373874201344703</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.7434553361272584</v>
@@ -2471,7 +2471,7 @@
         <v>0.1208895800654911</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.5807886875972342</v>
+        <v>0.5807886875972346</v>
       </c>
     </row>
     <row r="56">
@@ -2482,31 +2482,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1314511574667419</v>
+        <v>0.1388615968425996</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.158022255709067</v>
+        <v>-0.1917110033721603</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.2938127045892814</v>
+        <v>0.2282837686384108</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.6075276315350751</v>
+        <v>0.5975960656928313</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.09289767945900301</v>
+        <v>-0.08507254242732104</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3075710659330676</v>
+        <v>0.2827621474407903</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.5062252308352307</v>
+        <v>0.5059324937506737</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.0469329967036134</v>
+        <v>-0.04288395376948975</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.358306383271826</v>
+        <v>0.3695542265875328</v>
       </c>
     </row>
     <row r="57">
@@ -2517,31 +2517,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.8842795686339595</v>
+        <v>0.8930127833272777</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.4595608178375908</v>
+        <v>0.4038460177866051</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.107934323316102</v>
+        <v>1.086045471270503</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>1.358942541179289</v>
+        <v>1.311006858349098</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.3965874384851783</v>
+        <v>0.3973429983905395</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.8675856503543474</v>
+        <v>0.8112024578733843</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>1.023769604380138</v>
+        <v>1.051671467978201</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.3262131368848779</v>
+        <v>0.3423223136487622</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.8384015942081746</v>
+        <v>0.8254010119206844</v>
       </c>
     </row>
     <row r="58">
